--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf16-Fgfr4.xlsx
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09476766666666668</v>
+        <v>0.09476766666666665</v>
       </c>
       <c r="H2">
         <v>0.284303</v>
       </c>
       <c r="I2">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="J2">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N2">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O2">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P2">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q2">
-        <v>0.004910007577666667</v>
+        <v>0.03468442898322222</v>
       </c>
       <c r="R2">
-        <v>0.044190068199</v>
+        <v>0.3121598608489999</v>
       </c>
       <c r="S2">
-        <v>2.529036918421414E-05</v>
+        <v>0.0001571266249728325</v>
       </c>
       <c r="T2">
-        <v>2.529036918421414E-05</v>
+        <v>0.0001571266249728325</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09476766666666668</v>
+        <v>0.09476766666666665</v>
       </c>
       <c r="H3">
         <v>0.284303</v>
       </c>
       <c r="I3">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="J3">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.273934</v>
       </c>
       <c r="O3">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P3">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q3">
-        <v>0.008653362000222225</v>
+        <v>0.008653362000222221</v>
       </c>
       <c r="R3">
-        <v>0.07788025800200001</v>
+        <v>0.07788025800199999</v>
       </c>
       <c r="S3">
-        <v>4.457156454619365E-05</v>
+        <v>3.920126712827784E-05</v>
       </c>
       <c r="T3">
-        <v>4.457156454619364E-05</v>
+        <v>3.920126712827784E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09476766666666668</v>
+        <v>0.09476766666666665</v>
       </c>
       <c r="H4">
         <v>0.284303</v>
       </c>
       <c r="I4">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="J4">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N4">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O4">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P4">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q4">
-        <v>4.752035279090334</v>
+        <v>5.107701175120332</v>
       </c>
       <c r="R4">
-        <v>42.76831751181301</v>
+        <v>45.969310576083</v>
       </c>
       <c r="S4">
-        <v>0.02447668861678558</v>
+        <v>0.02313879370494022</v>
       </c>
       <c r="T4">
-        <v>0.02447668861678558</v>
+        <v>0.02313879370494022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09476766666666668</v>
+        <v>0.09476766666666665</v>
       </c>
       <c r="H5">
         <v>0.284303</v>
       </c>
       <c r="I5">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="J5">
-        <v>0.02456723071903196</v>
+        <v>0.02336090049363864</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04236633333333333</v>
+        <v>0.06004666666666667</v>
       </c>
       <c r="N5">
-        <v>0.127099</v>
+        <v>0.18014</v>
       </c>
       <c r="O5">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="P5">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="Q5">
-        <v>0.004014958555222223</v>
+        <v>0.005690482491111111</v>
       </c>
       <c r="R5">
-        <v>0.036134626997</v>
+        <v>0.05121434242</v>
       </c>
       <c r="S5">
-        <v>2.068016851598073E-05</v>
+        <v>2.577889659731165E-05</v>
       </c>
       <c r="T5">
-        <v>2.068016851598073E-05</v>
+        <v>2.577889659731166E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,43 +788,43 @@
         <v>2.187396333333333</v>
       </c>
       <c r="H6">
-        <v>6.562188999999999</v>
+        <v>6.562189</v>
       </c>
       <c r="I6">
-        <v>0.5670527964351189</v>
+        <v>0.5392086761288135</v>
       </c>
       <c r="J6">
-        <v>0.567052796435119</v>
+        <v>0.5392086761288134</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N6">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O6">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P6">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q6">
-        <v>0.1133311914263333</v>
+        <v>0.8005746627541112</v>
       </c>
       <c r="R6">
-        <v>1.019980722837</v>
+        <v>7.205171964787</v>
       </c>
       <c r="S6">
-        <v>0.0005837440423301511</v>
+        <v>0.003626745444134767</v>
       </c>
       <c r="T6">
-        <v>0.0005837440423301512</v>
+        <v>0.003626745444134767</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>2.187396333333333</v>
       </c>
       <c r="H7">
-        <v>6.562188999999999</v>
+        <v>6.562189</v>
       </c>
       <c r="I7">
-        <v>0.5670527964351189</v>
+        <v>0.5392086761288135</v>
       </c>
       <c r="J7">
-        <v>0.567052796435119</v>
+        <v>0.5392086761288134</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.273934</v>
       </c>
       <c r="O7">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P7">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q7">
         <v>0.1997340757251111</v>
@@ -883,10 +883,10 @@
         <v>1.797606681526</v>
       </c>
       <c r="S7">
-        <v>0.001028786296936092</v>
+        <v>0.0009048308457358751</v>
       </c>
       <c r="T7">
-        <v>0.001028786296936093</v>
+        <v>0.000904830845735875</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>2.187396333333333</v>
       </c>
       <c r="H8">
-        <v>6.562188999999999</v>
+        <v>6.562189</v>
       </c>
       <c r="I8">
-        <v>0.5670527964351189</v>
+        <v>0.5392086761288135</v>
       </c>
       <c r="J8">
-        <v>0.567052796435119</v>
+        <v>0.5392086761288134</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N8">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O8">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P8">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q8">
-        <v>109.6849264202577</v>
+        <v>117.8942904811477</v>
       </c>
       <c r="R8">
-        <v>987.164337782319</v>
+        <v>1061.048614330329</v>
       </c>
       <c r="S8">
-        <v>0.5649629331997744</v>
+        <v>0.534082079766404</v>
       </c>
       <c r="T8">
-        <v>0.5649629331997745</v>
+        <v>0.534082079766404</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,43 +974,43 @@
         <v>2.187396333333333</v>
       </c>
       <c r="H9">
-        <v>6.562188999999999</v>
+        <v>6.562189</v>
       </c>
       <c r="I9">
-        <v>0.5670527964351189</v>
+        <v>0.5392086761288135</v>
       </c>
       <c r="J9">
-        <v>0.567052796435119</v>
+        <v>0.5392086761288134</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04236633333333333</v>
+        <v>0.06004666666666667</v>
       </c>
       <c r="N9">
-        <v>0.127099</v>
+        <v>0.18014</v>
       </c>
       <c r="O9">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="P9">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="Q9">
-        <v>0.09267196219011109</v>
+        <v>0.1313458584955556</v>
       </c>
       <c r="R9">
-        <v>0.8340476597109998</v>
+        <v>1.18211272646</v>
       </c>
       <c r="S9">
-        <v>0.0004773328960781808</v>
+        <v>0.0005950200725388617</v>
       </c>
       <c r="T9">
-        <v>0.0004773328960781809</v>
+        <v>0.0005950200725388617</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.575318666666667</v>
+        <v>1.774514666666667</v>
       </c>
       <c r="H10">
-        <v>4.725956</v>
+        <v>5.323544</v>
       </c>
       <c r="I10">
-        <v>0.408379972845849</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="J10">
-        <v>0.408379972845849</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N10">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O10">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P10">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q10">
-        <v>0.08161883543866666</v>
+        <v>0.6494623124168889</v>
       </c>
       <c r="R10">
-        <v>0.7345695189479999</v>
+        <v>5.845160811752</v>
       </c>
       <c r="S10">
-        <v>0.0004204006710740017</v>
+        <v>0.002942179652041563</v>
       </c>
       <c r="T10">
-        <v>0.0004204006710740017</v>
+        <v>0.002942179652041563</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.575318666666667</v>
+        <v>1.774514666666667</v>
       </c>
       <c r="H11">
-        <v>4.725956</v>
+        <v>5.323544</v>
       </c>
       <c r="I11">
-        <v>0.408379972845849</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="J11">
-        <v>0.408379972845849</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.273934</v>
       </c>
       <c r="O11">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P11">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q11">
-        <v>0.1438444478782222</v>
+        <v>0.1620333002328889</v>
       </c>
       <c r="R11">
-        <v>1.294600030904</v>
+        <v>1.458299702096</v>
       </c>
       <c r="S11">
-        <v>0.0007409111155931213</v>
+        <v>0.0007340396352241825</v>
       </c>
       <c r="T11">
-        <v>0.0007409111155931211</v>
+        <v>0.0007340396352241825</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.575318666666667</v>
+        <v>1.774514666666667</v>
       </c>
       <c r="H12">
-        <v>4.725956</v>
+        <v>5.323544</v>
       </c>
       <c r="I12">
-        <v>0.408379972845849</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="J12">
-        <v>0.408379972845849</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N12">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O12">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P12">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q12">
-        <v>78.99286901449734</v>
+        <v>95.64117137210933</v>
       </c>
       <c r="R12">
-        <v>710.935821130476</v>
+        <v>860.770542348984</v>
       </c>
       <c r="S12">
-        <v>0.4068748955467564</v>
+        <v>0.4332714969422491</v>
       </c>
       <c r="T12">
-        <v>0.4068748955467564</v>
+        <v>0.4332714969422492</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.575318666666667</v>
+        <v>1.774514666666667</v>
       </c>
       <c r="H13">
-        <v>4.725956</v>
+        <v>5.323544</v>
       </c>
       <c r="I13">
-        <v>0.408379972845849</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="J13">
-        <v>0.408379972845849</v>
+        <v>0.437430423377548</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.04236633333333333</v>
+        <v>0.06004666666666667</v>
       </c>
       <c r="N13">
-        <v>0.127099</v>
+        <v>0.18014</v>
       </c>
       <c r="O13">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="P13">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="Q13">
-        <v>0.06674047573822223</v>
+        <v>0.1065536906844445</v>
       </c>
       <c r="R13">
-        <v>0.600664281644</v>
+        <v>0.9589832161600002</v>
       </c>
       <c r="S13">
-        <v>0.0003437655124255116</v>
+        <v>0.0004827071480330453</v>
       </c>
       <c r="T13">
-        <v>0.0003437655124255116</v>
+        <v>0.0004827071480330454</v>
       </c>
     </row>
   </sheetData>
